--- a/usersByEmailWithCoins.xlsx
+++ b/usersByEmailWithCoins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1f84\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15298CC2-9C16-491D-983F-DA92688E9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B40F3C-FAE8-4844-B2D6-DB7A9B226D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,14 +43,14 @@
     <t>Coins</t>
   </si>
   <si>
-    <t>agalindo@hexacta.com</t>
+    <t>jmillan@hexacta.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,10 +101,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,7 +424,7 @@
   <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="C1:D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,11 +444,11 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>8</v>
+      <c r="B2" s="3">
+        <v>26700</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -473,15 +481,21 @@
       <sortCondition ref="A1:A179"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1BD5E60C-8195-4737-89B3-141103632EE0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F7FA7AEAB2AAFF4CA79E891073ED71E9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b5c49db8e80fcd48da2ff5e6603affd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5caaf9cf-d1cc-4ddf-988f-4affe9c93830" xmlns:ns3="a74c1528-cdb0-489c-a0ee-6ee766b3bd4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fcb8fb7b2d872c557ab7b6656f1c8ab4" ns2:_="" ns3:_="">
     <xsd:import namespace="5caaf9cf-d1cc-4ddf-988f-4affe9c93830"/>
@@ -646,19 +660,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D678074-A39E-4F04-8011-DAECA175E76C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{454E9F39-2749-4C3C-BAF0-25FA9E1B7A9B}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D678074-A39E-4F04-8011-DAECA175E76C}"/>
 </file>